--- a/Band alignment-prediction.xlsx
+++ b/Band alignment-prediction.xlsx
@@ -5,39 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\华为云盘\作图\SI\机器学习更新\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\华为云盘\文章备份\sub-nature\github-gai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFAFCAA-47E5-4ACE-B77D-9FC96E4D85E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BEE533-A4F7-47A3-8FA6-749AC3F66443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16380" yWindow="2205" windowWidth="14175" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12525" yWindow="1200" windowWidth="27855" windowHeight="16635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="yuce" sheetId="2" r:id="rId1"/>
-    <sheet name="BA-FEd" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="prediction" sheetId="2" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
-  <si>
-    <t>Chemical potential</t>
-  </si>
-  <si>
-    <t>Minimal value</t>
-  </si>
-  <si>
-    <t>Overall surface area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Band alignment (eV) </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>formula</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +56,6 @@
   </si>
   <si>
     <t>Minimal value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Band alignment (eV) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -136,7 +115,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,12 +131,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,17 +170,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -228,69 +194,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="gai"/>
-      <sheetName val="FED-multi"/>
-      <sheetName val="FEd"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Sheet5"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="2">
-          <cell r="A2">
-            <v>-0.873</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>-3.9049999999999998</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>-5.8860000000000001</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>-0.6</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>-5.2210000000000001</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>-1.468</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>-2.06</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -581,7 +484,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -594,21 +497,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>-3.9009</v>
@@ -622,7 +525,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>-5.407</v>
@@ -636,7 +539,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>-7.4785000000000004</v>
@@ -650,21 +553,21 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
         <v>-10.495100000000001</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>-10.737489999999999</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>37.922730000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
         <v>-12.0853</v>
@@ -678,7 +581,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
         <v>-3.8978999999999999</v>
@@ -692,7 +595,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
         <v>-5.5361000000000002</v>
@@ -706,7 +609,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>-7.1901000000000002</v>
@@ -720,7 +623,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2">
         <v>-9.1499000000000006</v>
@@ -734,7 +637,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2">
         <v>-5.1689999999999996</v>
@@ -748,7 +651,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2">
         <v>-6.7491000000000003</v>
@@ -762,7 +665,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
         <v>-8.4414999999999996</v>
@@ -776,7 +679,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2">
         <v>-6.0898000000000003</v>
@@ -790,7 +693,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>-7.5185000000000004</v>
@@ -804,7 +707,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>-7.1247999999999996</v>
@@ -815,451 +718,6 @@
       <c r="D16" s="2">
         <v>76.341130000000007</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4">
-        <v>-3.9009</v>
-      </c>
-      <c r="C2" s="4">
-        <v>-14.5174</v>
-      </c>
-      <c r="D2" s="4">
-        <v>53.324019999999997</v>
-      </c>
-      <c r="E2" s="4">
-        <v>-6.4409706931364257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4">
-        <v>-7.5785</v>
-      </c>
-      <c r="C3" s="4">
-        <v>-17.861719999999998</v>
-      </c>
-      <c r="D3" s="4">
-        <v>42.084359999999997</v>
-      </c>
-      <c r="E3" s="4">
-        <v>-9.5709057363406043</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4">
-        <v>-10.495100000000001</v>
-      </c>
-      <c r="C4" s="4">
-        <v>-10.737489999999999</v>
-      </c>
-      <c r="D4" s="4">
-        <v>37.922730000000001</v>
-      </c>
-      <c r="E4" s="4">
-        <v>-11.770896711394521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4">
-        <v>-3.8978999999999999</v>
-      </c>
-      <c r="C5" s="4">
-        <v>-28.474810000000002</v>
-      </c>
-      <c r="D5" s="4">
-        <v>70.724419999999995</v>
-      </c>
-      <c r="E5" s="4">
-        <v>-5.9374987983589449</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4">
-        <v>-9.1499000000000006</v>
-      </c>
-      <c r="C6" s="4">
-        <v>-5.79291</v>
-      </c>
-      <c r="D6" s="4">
-        <v>53.612699999999997</v>
-      </c>
-      <c r="E6" s="4">
-        <v>-10.367175088736531</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4">
-        <v>-5.1689999999999996</v>
-      </c>
-      <c r="C7" s="4">
-        <v>-21.689330000000002</v>
-      </c>
-      <c r="D7" s="4">
-        <v>68.562470000000005</v>
-      </c>
-      <c r="E7" s="4">
-        <v>-6.918313094043663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4">
-        <v>-6.0898000000000003</v>
-      </c>
-      <c r="C8" s="4">
-        <v>-12.72353</v>
-      </c>
-      <c r="D8" s="4">
-        <v>76.050259999999994</v>
-      </c>
-      <c r="E8" s="4">
-        <v>-7.4255827305663269</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852E1339-3B60-4501-9D5E-41C4AC4CB59D}">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
-        <v>-3.9009</v>
-      </c>
-      <c r="C2" s="2">
-        <v>-14.5174</v>
-      </c>
-      <c r="D2" s="2">
-        <v>53.324019999999997</v>
-      </c>
-      <c r="E2" s="2">
-        <f>-5.456+[1]Sheet2!A2</f>
-        <v>-6.3290000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2">
-        <v>-5.407</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-23.8874</v>
-      </c>
-      <c r="D3" s="2">
-        <v>48.306980000000003</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2">
-        <v>-7.4785000000000004</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-17.861719999999998</v>
-      </c>
-      <c r="D4" s="2">
-        <v>42.084359999999997</v>
-      </c>
-      <c r="E4" s="2">
-        <f>-5.456+[1]Sheet2!A4</f>
-        <v>-9.3610000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>-9.4951000000000008</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-10.737489999999999</v>
-      </c>
-      <c r="D5" s="2">
-        <v>37.922730000000001</v>
-      </c>
-      <c r="E5" s="2">
-        <f>-5.456+[1]Sheet2!A5</f>
-        <v>-11.342000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-12.0853</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-5.3266600000000004</v>
-      </c>
-      <c r="D6" s="2">
-        <v>33.849359999999997</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>-3.8978999999999999</v>
-      </c>
-      <c r="C7" s="2">
-        <v>-28.474810000000002</v>
-      </c>
-      <c r="D7" s="2">
-        <v>70.724419999999995</v>
-      </c>
-      <c r="E7" s="2">
-        <f>-5.456+[1]Sheet2!A7</f>
-        <v>-6.056</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2">
-        <v>-5.5361000000000002</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-20.8552</v>
-      </c>
-      <c r="D8" s="2">
-        <v>64.284630000000007</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2">
-        <v>-7.1901000000000002</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-12.60089</v>
-      </c>
-      <c r="D9" s="2">
-        <v>59.121769999999998</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>-9.1499000000000006</v>
-      </c>
-      <c r="C10" s="2">
-        <v>-5.79291</v>
-      </c>
-      <c r="D10" s="2">
-        <v>53.612699999999997</v>
-      </c>
-      <c r="E10" s="2">
-        <f>-5.456+[1]Sheet2!A10</f>
-        <v>-10.677</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>-5.1689999999999996</v>
-      </c>
-      <c r="C11" s="2">
-        <v>-21.689330000000002</v>
-      </c>
-      <c r="D11" s="2">
-        <v>68.562470000000005</v>
-      </c>
-      <c r="E11" s="2">
-        <f>-5.456+[1]Sheet2!A11</f>
-        <v>-6.9240000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2">
-        <v>-6.7491000000000003</v>
-      </c>
-      <c r="C12" s="2">
-        <v>-12.766590000000001</v>
-      </c>
-      <c r="D12" s="2">
-        <v>65.632059999999996</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2">
-        <v>-8.4414999999999996</v>
-      </c>
-      <c r="C13" s="2">
-        <v>-5.6370800000000001</v>
-      </c>
-      <c r="D13" s="2">
-        <v>61.14725</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2">
-        <v>-6.0898000000000003</v>
-      </c>
-      <c r="C14" s="2">
-        <v>-12.72353</v>
-      </c>
-      <c r="D14" s="2">
-        <v>76.050259999999994</v>
-      </c>
-      <c r="E14" s="2">
-        <f>-5.456+[1]Sheet2!A14</f>
-        <v>-7.516</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2">
-        <v>-7.5185000000000004</v>
-      </c>
-      <c r="C15" s="2">
-        <v>-5.3177500000000002</v>
-      </c>
-      <c r="D15" s="2">
-        <v>72.026859999999999</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2">
-        <v>-7.1247999999999996</v>
-      </c>
-      <c r="C16" s="2">
-        <v>-5.1684900000000003</v>
-      </c>
-      <c r="D16" s="2">
-        <v>76.341130000000007</v>
-      </c>
-      <c r="E16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
